--- a/camada_bronze.xlsx
+++ b/camada_bronze.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunoluz2/Documents/github/brunoluz/senac-arquitetura-big-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F63000-B25E-E748-A5D0-6C451ACF1C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BD1C33-1A01-5145-8981-558896103C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" xr2:uid="{BC1A57E2-7ED2-F04A-8F32-4340CB3299D3}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" activeTab="1" xr2:uid="{BC1A57E2-7ED2-F04A-8F32-4340CB3299D3}"/>
   </bookViews>
   <sheets>
     <sheet name="MICRODADOS_CADASTRO_CURSOS_2021" sheetId="1" r:id="rId1"/>
     <sheet name="MICRODADOS_CADASTRO_IES_2021" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="569">
   <si>
     <t>Tipo</t>
   </si>
@@ -1718,6 +1719,21 @@
   </si>
   <si>
     <t>%s</t>
+  </si>
+  <si>
+    <t>ARQUIVO</t>
+  </si>
+  <si>
+    <t>CO_PROJETO</t>
+  </si>
+  <si>
+    <t>CO_LOCAL_OFERTA</t>
+  </si>
+  <si>
+    <t>NO_LOCAL_OFERTA</t>
+  </si>
+  <si>
+    <t>DICIONARIO</t>
   </si>
 </sst>
 </file>
@@ -2239,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1D4B1B-871C-774B-AE46-42234006C61E}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="131.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5448,7 +5464,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
         <v>257</v>
       </c>
@@ -5948,7 +5964,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A149" s="15" t="s">
         <v>297</v>
       </c>
@@ -7280,10 +7296,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F996F24-6CA4-6148-BE07-2D47E52F9C32}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="91.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7296,7 +7312,7 @@
     <col min="6" max="6" width="226" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>403</v>
       </c>
@@ -7312,8 +7328,11 @@
       <c r="E1" s="24" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="24" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
@@ -7334,8 +7353,11 @@
         <f>_xlfn.CONCAT("  ", A2, " ", E2, "(", D2, ") COMMENT '", B2, "',")</f>
         <v xml:space="preserve">  NU_ANO_CENSO DECIMAL(4) COMMENT 'Ano de referência do Censo da Educação Superior',</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>407</v>
       </c>
@@ -7356,8 +7378,11 @@
         <f t="shared" ref="F3:F66" si="1">_xlfn.CONCAT("  ", A3, " ", E3, "(", D3, ") COMMENT '", B3, "',")</f>
         <v xml:space="preserve">  NO_REGIAO_IES CHAR(20) COMMENT 'Nome da região geográfica da sede administrativa ou reitoria da IES',</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>409</v>
       </c>
@@ -7378,8 +7403,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  CO_REGIAO_IES DECIMAL(2) COMMENT 'Código da região geográfica da sede administrativa ou reitoria da IES',</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>411</v>
       </c>
@@ -7400,8 +7428,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  NO_UF_IES CHAR(50) COMMENT 'Nome da Unidade da Federação da sede administrativa ou reitoria da IES',</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>413</v>
       </c>
@@ -7422,8 +7453,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  SG_UF_IES CHAR(2) COMMENT 'Sigla da Unidade da Federação da sede administrativa ou reitoria da IES',</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>415</v>
       </c>
@@ -7444,8 +7478,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  CO_UF_IES DECIMAL(2) COMMENT 'Código da Unidade da Federação da sede administrativa ou reitoria da IES',</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>417</v>
       </c>
@@ -7466,8 +7503,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  NO_MUNICIPIO_IES CHAR(150) COMMENT 'Nome do Município da sede administrativa ou reitoria da IES',</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
         <v>419</v>
       </c>
@@ -7488,8 +7528,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  CO_MUNICIPIO_IES DECIMAL(7) COMMENT 'Código do Município da sede administrativa ou reitoria da IES',</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>421</v>
       </c>
@@ -7510,8 +7553,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  IN_CAPITAL_IES DECIMAL(2) COMMENT 'Informa se a sede administrativa ou reitoria da IES está localizada na capital da Unidade da Federação',</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>423</v>
       </c>
@@ -7532,8 +7578,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  NO_MESORREGIAO_IES CHAR(100) COMMENT 'Nome da Mesorregião da sede administrativa ou reitoria da IES',</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
         <v>425</v>
       </c>
@@ -7554,8 +7603,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  CO_MESORREGIAO_IES DECIMAL(4) COMMENT 'Código da Mesorregião da sede administrativa ou reitoria da IES',</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>427</v>
       </c>
@@ -7576,8 +7628,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  NO_MICRORREGIAO_IES CHAR(100) COMMENT 'Nome da Microrregião da sede administrativa ou reitoria da IES',</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
         <v>429</v>
       </c>
@@ -7598,8 +7653,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  CO_MICRORREGIAO_IES DECIMAL(5) COMMENT 'Código da Microrregião da sede administrativa ou reitoria da IES',</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>23</v>
       </c>
@@ -7620,8 +7678,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  TP_ORGANIZACAO_ACADEMICA DECIMAL(1) COMMENT 'Tipo de Organização Acadêmica da IES',</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>25</v>
       </c>
@@ -7642,8 +7703,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  TP_CATEGORIA_ADMINISTRATIVA DECIMAL(1) COMMENT 'Tipo de Categoria Administrativa da IES',</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
         <v>431</v>
       </c>
@@ -7664,8 +7728,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  NO_MANTENEDORA CHAR(100) COMMENT 'Nome da mantenedora da IES',</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
         <v>433</v>
       </c>
@@ -7686,8 +7753,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  CO_MANTENEDORA DECIMAL(8) COMMENT 'Código único de identificação da mantenedora da IES',</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
         <v>29</v>
       </c>
@@ -7708,8 +7778,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  CO_IES DECIMAL(8) COMMENT 'Código único de identificação da IES',</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
         <v>436</v>
       </c>
@@ -7730,8 +7803,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  NO_IES CHAR(200) COMMENT 'Nome da IES',</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
         <v>438</v>
       </c>
@@ -7752,8 +7828,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  SG_IES CHAR(20) COMMENT 'Sigla da IES',</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
         <v>440</v>
       </c>
@@ -7774,8 +7853,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  DS_ENDERECO_IES CHAR(255) COMMENT 'Endereço da sede administrativa/reitoria da IES',</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>442</v>
       </c>
@@ -7796,8 +7878,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  DS_NUMERO_ENDERECO_IES CHAR(10) COMMENT 'Número do endereço',</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="s">
         <v>444</v>
       </c>
@@ -7818,8 +7903,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  DS_COMPLEMENTO_ENDERECO_IES CHAR(20) COMMENT 'Complemento do endereço',</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="s">
         <v>446</v>
       </c>
@@ -7840,8 +7928,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  NO_BAIRRO_IES CHAR(50) COMMENT 'Bairro',</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="s">
         <v>448</v>
       </c>
@@ -7862,8 +7953,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  NU_CEP_IES DECIMAL(8) COMMENT 'CEP',</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>450</v>
       </c>
@@ -7884,8 +7978,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_TEC_TOTAL DECIMAL(8) COMMENT 'Quantidade de funcionários técnico-administrativos',</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>452</v>
       </c>
@@ -7906,8 +8003,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_TEC_FUNDAMENTAL_INCOMP_FEM DECIMAL(8) COMMENT 'Quantidade de funcionários técnico-administrativos do sexo feminino com ensino fundamental incompleto',</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
         <v>454</v>
       </c>
@@ -7928,8 +8028,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_TEC_FUNDAMENTAL_INCOMP_MASC DECIMAL(8) COMMENT 'Quantidade de funcionários técnico-administrativos do sexo masculino com ensino fundamental incompleto',</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>456</v>
       </c>
@@ -7950,8 +8053,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_TEC_FUNDAMENTAL_COMP_FEM DECIMAL(8) COMMENT 'Quantidade de funcionários técnico-administrativos do sexo feminino com ensino fundamental completo',</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
         <v>458</v>
       </c>
@@ -7972,8 +8078,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_TEC_FUNDAMENTAL_COMP_MASC DECIMAL(8) COMMENT 'Quantidade de funcionários técnico-administrativos do sexo masculino com ensino fundamental completo',</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
         <v>460</v>
       </c>
@@ -7994,8 +8103,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_TEC_MEDIO_FEM DECIMAL(8) COMMENT 'Quantidade de funcionários técnico-administrativos do sexo feminino com ensino médio',</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
         <v>462</v>
       </c>
@@ -8016,8 +8128,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_TEC_MEDIO_MASC DECIMAL(8) COMMENT 'Quantidade de funcionários técnico-administrativos do sexo masculino com ensino médio',</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
         <v>464</v>
       </c>
@@ -8038,8 +8153,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_TEC_SUPERIOR_FEM DECIMAL(8) COMMENT 'Quantidade de funcionários técnico-administrativos do sexo feminino com nível superior',</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
         <v>466</v>
       </c>
@@ -8060,8 +8178,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_TEC_SUPERIOR_MASC DECIMAL(8) COMMENT 'Quantidade de funcionários técnico-administrativos do sexo masculino com nível superior',</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
         <v>468</v>
       </c>
@@ -8082,8 +8203,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_TEC_ESPECIALIZACAO_FEM DECIMAL(8) COMMENT 'Quantidade de funcionários técnico-administrativos do sexo feminino com especialização',</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
         <v>470</v>
       </c>
@@ -8104,8 +8228,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_TEC_ESPECIALIZACAO_MASC DECIMAL(8) COMMENT 'Quantidade de funcionários técnico-administrativos do sexo masculino com especialização',</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="s">
         <v>472</v>
       </c>
@@ -8126,8 +8253,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_TEC_MESTRADO_FEM DECIMAL(8) COMMENT 'Quantidade de funcionários técnico-administrativos do sexo feminino com mestrado',</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
         <v>474</v>
       </c>
@@ -8148,8 +8278,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_TEC_MESTRADO_MASC DECIMAL(8) COMMENT 'Quantidade de funcionários técnico-administrativos do sexo masculino com mestrado',</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="29" t="s">
         <v>476</v>
       </c>
@@ -8170,8 +8303,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_TEC_DOUTORADO_FEM DECIMAL(8) COMMENT 'Quantidade de funcionários técnico-administrativos do sexo feminino com doutorado',</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="29" t="s">
         <v>478</v>
       </c>
@@ -8192,8 +8328,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_TEC_DOUTORADO_MASC DECIMAL(8) COMMENT 'Quantidade de funcionários técnico-administrativos do sexo masculino com doutorado',</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="29" t="s">
         <v>480</v>
       </c>
@@ -8214,8 +8353,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  IN_ACESSO_PORTAL_CAPES DECIMAL(1) COMMENT 'Informa se as bibliotecas da IES têm acesso ao portal Capes de periódicos',</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="29" t="s">
         <v>482</v>
       </c>
@@ -8236,8 +8378,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  IN_ACESSO_OUTRAS_BASES DECIMAL(1) COMMENT 'Informa se as bibliotecas da IES têm acesso a outras bases de dados licenciadas ou compradas',</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="29" t="s">
         <v>484</v>
       </c>
@@ -8258,8 +8403,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  IN_ASSINA_OUTRA_BASE DECIMAL(1) COMMENT 'Informa se as bibliotecas da IES assinam outras bases de dados licenciadas ou compradas',</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="29" t="s">
         <v>486</v>
       </c>
@@ -8280,8 +8428,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  IN_REPOSITORIO_INSTITUCIONAL DECIMAL(1) COMMENT 'Informa se a IES possui base de dados online que reúne de maneira organizada a produção científica da instituição',</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="29" t="s">
         <v>488</v>
       </c>
@@ -8302,8 +8453,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  IN_BUSCA_INTEGRADA DECIMAL(1) COMMENT 'Informa se a IES oferece ferramenta eletrônica que possibilita pesquisar simultaneamente diversas fontes de informação e obter resultado em uma única interface',</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="29" t="s">
         <v>490</v>
       </c>
@@ -8324,8 +8478,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  IN_SERVICO_INTERNET DECIMAL(1) COMMENT 'Informa se as bibliotecas da IES oferecem serviços pela internet',</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="29" t="s">
         <v>492</v>
       </c>
@@ -8346,8 +8503,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  IN_PARTICIPA_REDE_SOCIAL DECIMAL(1) COMMENT 'Informa se as bibliotecas participam de Redes Sociais',</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="29" t="s">
         <v>494</v>
       </c>
@@ -8368,8 +8528,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  IN_CATALOGO_ONLINE DECIMAL(1) COMMENT 'Informa se a IES possui ferramenta de recuperação de informação que permite ao usuário consultar, de forma local ou remota, a existência e disponibilidade de itens do acervo das bibliotecas',</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="29" t="s">
         <v>496</v>
       </c>
@@ -8390,8 +8553,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_PERIODICO_ELETRONICO DECIMAL(8) COMMENT 'Quantidade de títulos de periódicos eletrônicos adquiridos pelas bibliotecas por meio de compra, doação ou permuta ',</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A51" s="29" t="s">
         <v>498</v>
       </c>
@@ -8412,8 +8578,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_LIVRO_ELETRONICO DECIMAL(8) COMMENT 'Quantidade de títulos de livros eletrônicos disponibilizados pelas bibliotecas convertidos ao formato digital ou originalmente produzidos nesse formato para serem lidos em computador ou outros dispositivos',</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="29" t="s">
         <v>500</v>
       </c>
@@ -8434,8 +8603,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_DOC_TOTAL DECIMAL(8) COMMENT 'Quantidade total de docentes (em exercício e afastados)',</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="29" t="s">
         <v>502</v>
       </c>
@@ -8456,8 +8628,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_DOC_EXE DECIMAL(8) COMMENT 'Quantidade total de docentes em exercício',</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="29" t="s">
         <v>504</v>
       </c>
@@ -8478,8 +8653,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_DOC_EX_FEMI DECIMAL(8) COMMENT 'Quantidade de docentes em exercício do sexo feminino',</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="29" t="s">
         <v>506</v>
       </c>
@@ -8500,8 +8678,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_DOC_EX_MASC DECIMAL(8) COMMENT 'Quantidade de docentes em exercício do sexo masculino',</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="29" t="s">
         <v>508</v>
       </c>
@@ -8522,8 +8703,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_DOC_EX_SEM_GRAD DECIMAL(8) COMMENT 'Quantidade de docentes em exercício sem curso de graduação',</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="29" t="s">
         <v>510</v>
       </c>
@@ -8544,8 +8728,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_DOC_EX_GRAD DECIMAL(8) COMMENT 'Quantidade de docentes em exercício com curso de graduação',</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="29" t="s">
         <v>512</v>
       </c>
@@ -8566,8 +8753,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_DOC_EX_ESP DECIMAL(8) COMMENT 'Quantidade de docentes em exercício com especialização',</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="29" t="s">
         <v>514</v>
       </c>
@@ -8588,8 +8778,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_DOC_EX_MEST DECIMAL(8) COMMENT 'Quantidade de docentes em exercício com mestrado',</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="29" t="s">
         <v>516</v>
       </c>
@@ -8610,8 +8803,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_DOC_EX_DOUT DECIMAL(8) COMMENT 'Quantidade de docentes em exercício com doutorado',</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="29" t="s">
         <v>518</v>
       </c>
@@ -8632,8 +8828,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_DOC_EX_INT DECIMAL(8) COMMENT 'Quantidade de docentes em exercício em tempo integral',</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="29" t="s">
         <v>520</v>
       </c>
@@ -8654,8 +8853,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_DOC_EX_INT_DE DECIMAL(8) COMMENT 'Quantidade de docentes em exercício em tempo integral com dedicação exclusiva',</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="29" t="s">
         <v>522</v>
       </c>
@@ -8676,8 +8878,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_DOC_EX_INT_SEM_DE DECIMAL(8) COMMENT 'Quantidade de docentes em exercício em tempo integral sem dedicação exclusiva',</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="29" t="s">
         <v>524</v>
       </c>
@@ -8698,8 +8903,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_DOC_EX_PARC DECIMAL(8) COMMENT 'Quantidade de docentes em exercício em tempo parcial',</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="29" t="s">
         <v>526</v>
       </c>
@@ -8720,8 +8928,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_DOC_EX_HOR DECIMAL(8) COMMENT 'Quantidade de docentes em exercício horista',</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="29" t="s">
         <v>528</v>
       </c>
@@ -8742,8 +8953,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  QT_DOC_EX_0_29 DECIMAL(8) COMMENT 'Quantidade de docentes em exercício - até 29 anos',</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="29" t="s">
         <v>530</v>
       </c>
@@ -8764,8 +8978,11 @@
         <f t="shared" ref="F67:F82" si="3">_xlfn.CONCAT("  ", A67, " ", E67, "(", D67, ") COMMENT '", B67, "',")</f>
         <v xml:space="preserve">  QT_DOC_EX_30_34 DECIMAL(8) COMMENT 'Quantidade de docentes em exercício - de 30 a 34 anos',</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="29" t="s">
         <v>532</v>
       </c>
@@ -8786,8 +9003,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">  QT_DOC_EX_35_39 DECIMAL(8) COMMENT 'Quantidade de docentes em exercício - de 35 a 39 anos',</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="29" t="s">
         <v>534</v>
       </c>
@@ -8808,8 +9028,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">  QT_DOC_EX_40_44 DECIMAL(8) COMMENT 'Quantidade de docentes em exercício - de 40 a 44 anos',</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="29" t="s">
         <v>536</v>
       </c>
@@ -8830,8 +9053,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">  QT_DOC_EX_45_49 DECIMAL(8) COMMENT 'Quantidade de docentes em exercício - de 45 a 49 anos',</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="29" t="s">
         <v>538</v>
       </c>
@@ -8852,8 +9078,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">  QT_DOC_EX_50_54 DECIMAL(8) COMMENT 'Quantidade de docentes em exercício - de 50 a 54 anos',</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="29" t="s">
         <v>540</v>
       </c>
@@ -8874,8 +9103,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">  QT_DOC_EX_55_59 DECIMAL(8) COMMENT 'Quantidade de docentes em exercício - de 55 a 59 anos',</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="29" t="s">
         <v>542</v>
       </c>
@@ -8896,8 +9128,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">  QT_DOC_EX_60_MAIS DECIMAL(8) COMMENT 'Quantidade de docentes em exercício - de 60 anos ou mais',</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="35" t="s">
         <v>544</v>
       </c>
@@ -8918,8 +9153,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">  QT_DOC_EX_BRANCA DECIMAL(8) COMMENT 'Quantidade de docentes em exercício - Cor/Raça branca',</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="35" t="s">
         <v>546</v>
       </c>
@@ -8940,8 +9178,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">  QT_DOC_EX_PRETA DECIMAL(8) COMMENT 'Quantidade de docentes em exercício - Cor/Raça preta',</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="35" t="s">
         <v>548</v>
       </c>
@@ -8962,8 +9203,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">  QT_DOC_EX_PARDA DECIMAL(8) COMMENT 'Quantidade de docentes em exercício - Cor/Raça parda',</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="35" t="s">
         <v>550</v>
       </c>
@@ -8984,8 +9228,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">  QT_DOC_EX_AMARELA DECIMAL(8) COMMENT 'Quantidade de docentes em exercício - Cor/Raça amarela',</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="35" t="s">
         <v>552</v>
       </c>
@@ -9006,8 +9253,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">  QT_DOC_EX_INDIGENA DECIMAL(8) COMMENT 'Quantidade de docentes em exercício - Cor/Raça indígena',</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="35" t="s">
         <v>554</v>
       </c>
@@ -9028,8 +9278,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">  QT_DOC_EX_COR_ND DECIMAL(8) COMMENT 'Quantidade de docentes em exercício - Cor/Raça não dispõe da informação ou não declarada',</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="29" t="s">
         <v>556</v>
       </c>
@@ -9050,8 +9303,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">  QT_DOC_EX_BRA DECIMAL(8) COMMENT 'Quantidade de docentes em exercício - nacionalidade brasileira ou brasileira - nascido no exterior ou naturalizado',</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="29" t="s">
         <v>558</v>
       </c>
@@ -9072,8 +9328,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">  QT_DOC_EX_EST DECIMAL(8) COMMENT 'Quantidade de docentes em exercício - nacionalidade estrangeira',</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="29" t="s">
         <v>560</v>
       </c>
@@ -9093,10 +9352,702 @@
       <c r="F82" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">  QT_DOC_EX_COM_DEFICIENCIA DECIMAL(8) COMMENT 'Quantidade de docentes em exercício - com deficiência',</v>
+      </c>
+      <c r="G82" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B41431-C265-1E4C-8BDA-87898B703325}">
+  <dimension ref="A1:B85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A85" sqref="A2:A85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="35.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>425</v>
+      </c>
+      <c r="B12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>431</v>
+      </c>
+      <c r="B17" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>433</v>
+      </c>
+      <c r="B18" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>436</v>
+      </c>
+      <c r="B20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>438</v>
+      </c>
+      <c r="B21" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>440</v>
+      </c>
+      <c r="B22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>442</v>
+      </c>
+      <c r="B23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>444</v>
+      </c>
+      <c r="B24" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>446</v>
+      </c>
+      <c r="B25" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>448</v>
+      </c>
+      <c r="B26" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>450</v>
+      </c>
+      <c r="B27" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>452</v>
+      </c>
+      <c r="B28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>454</v>
+      </c>
+      <c r="B29" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>456</v>
+      </c>
+      <c r="B30" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>458</v>
+      </c>
+      <c r="B31" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>460</v>
+      </c>
+      <c r="B32" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>462</v>
+      </c>
+      <c r="B33" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>464</v>
+      </c>
+      <c r="B34" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>466</v>
+      </c>
+      <c r="B35" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>468</v>
+      </c>
+      <c r="B36" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>470</v>
+      </c>
+      <c r="B37" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>472</v>
+      </c>
+      <c r="B38" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>474</v>
+      </c>
+      <c r="B39" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>476</v>
+      </c>
+      <c r="B40" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>478</v>
+      </c>
+      <c r="B41" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>480</v>
+      </c>
+      <c r="B42" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>482</v>
+      </c>
+      <c r="B43" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>484</v>
+      </c>
+      <c r="B44" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>486</v>
+      </c>
+      <c r="B45" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>488</v>
+      </c>
+      <c r="B46" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>490</v>
+      </c>
+      <c r="B47" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>492</v>
+      </c>
+      <c r="B48" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>494</v>
+      </c>
+      <c r="B49" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>496</v>
+      </c>
+      <c r="B50" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>498</v>
+      </c>
+      <c r="B51" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>500</v>
+      </c>
+      <c r="B52" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>502</v>
+      </c>
+      <c r="B53" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>504</v>
+      </c>
+      <c r="B54" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>506</v>
+      </c>
+      <c r="B55" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>508</v>
+      </c>
+      <c r="B56" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>510</v>
+      </c>
+      <c r="B57" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>512</v>
+      </c>
+      <c r="B58" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>514</v>
+      </c>
+      <c r="B59" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>516</v>
+      </c>
+      <c r="B60" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>518</v>
+      </c>
+      <c r="B61" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>520</v>
+      </c>
+      <c r="B62" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>522</v>
+      </c>
+      <c r="B63" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>524</v>
+      </c>
+      <c r="B64" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>526</v>
+      </c>
+      <c r="B65" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>528</v>
+      </c>
+      <c r="B66" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>530</v>
+      </c>
+      <c r="B67" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>532</v>
+      </c>
+      <c r="B68" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>534</v>
+      </c>
+      <c r="B69" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>536</v>
+      </c>
+      <c r="B70" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>538</v>
+      </c>
+      <c r="B71" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>540</v>
+      </c>
+      <c r="B72" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>542</v>
+      </c>
+      <c r="B73" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>544</v>
+      </c>
+      <c r="B74" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>546</v>
+      </c>
+      <c r="B75" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>548</v>
+      </c>
+      <c r="B76" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>550</v>
+      </c>
+      <c r="B77" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>552</v>
+      </c>
+      <c r="B78" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>554</v>
+      </c>
+      <c r="B79" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>556</v>
+      </c>
+      <c r="B80" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>558</v>
+      </c>
+      <c r="B81" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>560</v>
+      </c>
+      <c r="B82" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>